--- a/HX.service.manage/src/main/resources/template/papersTemplate.xlsx
+++ b/HX.service.manage/src/main/resources/template/papersTemplate.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\霍佳进\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProject\HX.service.manage\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E28ADE-6721-4259-9737-1734E860F0A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,7 +201,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -482,11 +483,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -613,6 +614,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
